--- a/tut05/output/0401CS38.xlsx
+++ b/tut05/output/0401CS38.xlsx
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.26530612244898</v>
+        <v>9.27</v>
       </c>
       <c r="C6" t="n">
-        <v>9.113636363636363</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.534883720930232</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>9.191489361702128</v>
+        <v>9.19</v>
       </c>
       <c r="F6" t="n">
-        <v>8.833333333333334</v>
+        <v>8.83</v>
       </c>
       <c r="G6" t="n">
         <v>9.550000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.26530612244898</v>
+        <v>9.27</v>
       </c>
       <c r="C8" t="n">
-        <v>9.193548387096774</v>
+        <v>9.19</v>
       </c>
       <c r="D8" t="n">
-        <v>9.301470588235293</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>9.273224043715848</v>
+        <v>9.27</v>
       </c>
       <c r="F8" t="n">
-        <v>9.191111111111111</v>
+        <v>9.19</v>
       </c>
       <c r="G8" t="n">
-        <v>9.245283018867925</v>
+        <v>9.25</v>
       </c>
       <c r="H8" t="n">
-        <v>9.34640522875817</v>
+        <v>9.35</v>
       </c>
       <c r="I8" t="n">
-        <v>9.369942196531792</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
   </sheetData>
